--- a/biology/Botanique/Ardisia_nigrovirens/Ardisia_nigrovirens.xlsx
+++ b/biology/Botanique/Ardisia_nigrovirens/Ardisia_nigrovirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia nigrovirens est une espèce de plantes à fleurs de la famille des Primulaceae, originaire du Pérou.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1927 par le botaniste James Francis Macbride (1892-1976). L'épithète spécifique nigrovirens  - du latin nigro, noir, et virens, vert - signifie « vert très foncé ».
-En classification phylogénétique APG III (2009)[3], l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981)[4] et en classification phylogénétique APG II (2003)[5], le genre Ardisia était assigné à la famille des Myrsinaceae.
+En classification phylogénétique APG III (2009), l'espèce fait partie de la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), le genre Ardisia était assigné à la famille des Myrsinaceae.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du Pérou[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du Pérou.
 </t>
         </is>
       </c>
